--- a/medicine/Psychotrope/MillerCoors/MillerCoors.xlsx
+++ b/medicine/Psychotrope/MillerCoors/MillerCoors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 MillerCoors est une coentreprise entre SABMiller et Molson Coors, créé en 2007.
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2007, SABMiller et Molson Coors regroupent leur activité aux États-Unis dans une coentreprise nommée MillerCoors. SABMiller détient 58 % des actions de cette coentreprise contre 42 % pour Molson Coors, cependant les deux entreprises ont un droit de vote de 50 %. À la suite de cette transaction, MillerCoors détient avec 29 % du marché de la bière aux États-Unis, contre 49 % pour AB InBev[1],[2],[3].
-En septembre 2015, MillerCoors acquiert une participation majoritaire dans la micro-brasserie californienne Saint Archer Brewing, pour un montant inconnu[4].
-À la suite de l'acceptation de l'offre de rachat de SABMiller par AB InBev, cette dernière risque - forcée par les autorités de la concurrence - de devoir revendre ses parts de MillerCoors[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2007, SABMiller et Molson Coors regroupent leur activité aux États-Unis dans une coentreprise nommée MillerCoors. SABMiller détient 58 % des actions de cette coentreprise contre 42 % pour Molson Coors, cependant les deux entreprises ont un droit de vote de 50 %. À la suite de cette transaction, MillerCoors détient avec 29 % du marché de la bière aux États-Unis, contre 49 % pour AB InBev.
+En septembre 2015, MillerCoors acquiert une participation majoritaire dans la micro-brasserie californienne Saint Archer Brewing, pour un montant inconnu.
+À la suite de l'acceptation de l'offre de rachat de SABMiller par AB InBev, cette dernière risque - forcée par les autorités de la concurrence - de devoir revendre ses parts de MillerCoors.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Blue Moon, bière par produite par MillerCoors.</t>
         </is>
